--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Apoe-Lrp1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Apoe-Lrp1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>81.892575438902</v>
+        <v>100.8373843333333</v>
       </c>
       <c r="H2">
-        <v>81.892575438902</v>
+        <v>302.512153</v>
       </c>
       <c r="I2">
-        <v>0.6700063583768269</v>
+        <v>0.6551985585448407</v>
       </c>
       <c r="J2">
-        <v>0.6700063583768269</v>
+        <v>0.6551985585448408</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.979663021146081</v>
+        <v>17.16653</v>
       </c>
       <c r="N2">
-        <v>9.979663021146081</v>
+        <v>51.49959</v>
       </c>
       <c r="O2">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="P2">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="Q2">
-        <v>817.2603068140261</v>
+        <v>1731.027983279696</v>
       </c>
       <c r="R2">
-        <v>817.2603068140261</v>
+        <v>15579.25184951727</v>
       </c>
       <c r="S2">
-        <v>0.022457187320908</v>
+        <v>0.03671374964856847</v>
       </c>
       <c r="T2">
-        <v>0.022457187320908</v>
+        <v>0.03671374964856847</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>81.892575438902</v>
+        <v>100.8373843333333</v>
       </c>
       <c r="H3">
-        <v>81.892575438902</v>
+        <v>302.512153</v>
       </c>
       <c r="I3">
-        <v>0.6700063583768269</v>
+        <v>0.6551985585448407</v>
       </c>
       <c r="J3">
-        <v>0.6700063583768269</v>
+        <v>0.6551985585448408</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>255.664805713016</v>
+        <v>256.4443053333333</v>
       </c>
       <c r="N3">
-        <v>255.664805713016</v>
+        <v>769.332916</v>
       </c>
       <c r="O3">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="P3">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="Q3">
-        <v>20937.04938892538</v>
+        <v>25859.17297699201</v>
       </c>
       <c r="R3">
-        <v>20937.04938892538</v>
+        <v>232732.5567929281</v>
       </c>
       <c r="S3">
-        <v>0.5753212729823602</v>
+        <v>0.548452833788136</v>
       </c>
       <c r="T3">
-        <v>0.5753212729823602</v>
+        <v>0.5484528337881361</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>81.892575438902</v>
+        <v>100.8373843333333</v>
       </c>
       <c r="H4">
-        <v>81.892575438902</v>
+        <v>302.512153</v>
       </c>
       <c r="I4">
-        <v>0.6700063583768269</v>
+        <v>0.6551985585448407</v>
       </c>
       <c r="J4">
-        <v>0.6700063583768269</v>
+        <v>0.6551985585448408</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.0970775725202</v>
+        <v>32.74538866666666</v>
       </c>
       <c r="N4">
-        <v>32.0970775725202</v>
+        <v>98.236166</v>
       </c>
       <c r="O4">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="P4">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="Q4">
-        <v>2628.5123464759</v>
+        <v>3301.959342125044</v>
       </c>
       <c r="R4">
-        <v>2628.5123464759</v>
+        <v>29717.6340791254</v>
       </c>
       <c r="S4">
-        <v>0.07222789807355862</v>
+        <v>0.07003197510813608</v>
       </c>
       <c r="T4">
-        <v>0.07222789807355862</v>
+        <v>0.07003197510813609</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.049418834649</v>
+        <v>23.90796933333333</v>
       </c>
       <c r="H5">
-        <v>22.049418834649</v>
+        <v>71.72390799999999</v>
       </c>
       <c r="I5">
-        <v>0.1803979266563737</v>
+        <v>0.1553438454249564</v>
       </c>
       <c r="J5">
-        <v>0.1803979266563737</v>
+        <v>0.1553438454249564</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.979663021146081</v>
+        <v>17.16653</v>
       </c>
       <c r="N5">
-        <v>9.979663021146081</v>
+        <v>51.49959</v>
       </c>
       <c r="O5">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="P5">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="Q5">
-        <v>220.0457697819085</v>
+        <v>410.4168727997466</v>
       </c>
       <c r="R5">
-        <v>220.0457697819085</v>
+        <v>3693.75185519772</v>
       </c>
       <c r="S5">
-        <v>0.006046554604407356</v>
+        <v>0.008704620875608119</v>
       </c>
       <c r="T5">
-        <v>0.006046554604407356</v>
+        <v>0.008704620875608119</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>22.049418834649</v>
+        <v>23.90796933333333</v>
       </c>
       <c r="H6">
-        <v>22.049418834649</v>
+        <v>71.72390799999999</v>
       </c>
       <c r="I6">
-        <v>0.1803979266563737</v>
+        <v>0.1553438454249564</v>
       </c>
       <c r="J6">
-        <v>0.1803979266563737</v>
+        <v>0.1553438454249564</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>255.664805713016</v>
+        <v>256.4443053333333</v>
       </c>
       <c r="N6">
-        <v>255.664805713016</v>
+        <v>769.332916</v>
       </c>
       <c r="O6">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="P6">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="Q6">
-        <v>5637.260382445452</v>
+        <v>6131.062587617302</v>
       </c>
       <c r="R6">
-        <v>5637.260382445452</v>
+        <v>55179.56328855572</v>
       </c>
       <c r="S6">
-        <v>0.1549041490572711</v>
+        <v>0.1300350422383181</v>
       </c>
       <c r="T6">
-        <v>0.1549041490572711</v>
+        <v>0.1300350422383181</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>22.049418834649</v>
+        <v>23.90796933333333</v>
       </c>
       <c r="H7">
-        <v>22.049418834649</v>
+        <v>71.72390799999999</v>
       </c>
       <c r="I7">
-        <v>0.1803979266563737</v>
+        <v>0.1553438454249564</v>
       </c>
       <c r="J7">
-        <v>0.1803979266563737</v>
+        <v>0.1553438454249564</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.0970775725202</v>
+        <v>32.74538866666666</v>
       </c>
       <c r="N7">
-        <v>32.0970775725202</v>
+        <v>98.236166</v>
       </c>
       <c r="O7">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="P7">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="Q7">
-        <v>707.7219067647169</v>
+        <v>782.8757480507473</v>
       </c>
       <c r="R7">
-        <v>707.7219067647169</v>
+        <v>7045.881732456727</v>
       </c>
       <c r="S7">
-        <v>0.01944722299469526</v>
+        <v>0.01660418231103014</v>
       </c>
       <c r="T7">
-        <v>0.01944722299469526</v>
+        <v>0.01660418231103014</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.2845703180103</v>
+        <v>29.15819666666667</v>
       </c>
       <c r="H8">
-        <v>18.2845703180103</v>
+        <v>87.47459000000001</v>
       </c>
       <c r="I8">
-        <v>0.1495957149667994</v>
+        <v>0.1894575960302029</v>
       </c>
       <c r="J8">
-        <v>0.1495957149667994</v>
+        <v>0.1894575960302029</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.979663021146081</v>
+        <v>17.16653</v>
       </c>
       <c r="N8">
-        <v>9.979663021146081</v>
+        <v>51.49959</v>
       </c>
       <c r="O8">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="P8">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="Q8">
-        <v>182.4738502601926</v>
+        <v>500.5450578242333</v>
       </c>
       <c r="R8">
-        <v>182.4738502601926</v>
+        <v>4504.9055204181</v>
       </c>
       <c r="S8">
-        <v>0.005014130017442484</v>
+        <v>0.01061616918865131</v>
       </c>
       <c r="T8">
-        <v>0.005014130017442484</v>
+        <v>0.01061616918865131</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.2845703180103</v>
+        <v>29.15819666666667</v>
       </c>
       <c r="H9">
-        <v>18.2845703180103</v>
+        <v>87.47459000000001</v>
       </c>
       <c r="I9">
-        <v>0.1495957149667994</v>
+        <v>0.1894575960302029</v>
       </c>
       <c r="J9">
-        <v>0.1495957149667994</v>
+        <v>0.1894575960302029</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>255.664805713016</v>
+        <v>256.4443053333333</v>
       </c>
       <c r="N9">
-        <v>255.664805713016</v>
+        <v>769.332916</v>
       </c>
       <c r="O9">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="P9">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="Q9">
-        <v>4674.721117900082</v>
+        <v>7477.453488956049</v>
       </c>
       <c r="R9">
-        <v>4674.721117900082</v>
+        <v>67297.08140060444</v>
       </c>
       <c r="S9">
-        <v>0.1284548961235381</v>
+        <v>0.1585909402124263</v>
       </c>
       <c r="T9">
-        <v>0.1284548961235381</v>
+        <v>0.1585909402124263</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>18.2845703180103</v>
+        <v>29.15819666666667</v>
       </c>
       <c r="H10">
-        <v>18.2845703180103</v>
+        <v>87.47459000000001</v>
       </c>
       <c r="I10">
-        <v>0.1495957149667994</v>
+        <v>0.1894575960302029</v>
       </c>
       <c r="J10">
-        <v>0.1495957149667994</v>
+        <v>0.1894575960302029</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.0970775725202</v>
+        <v>32.74538866666666</v>
       </c>
       <c r="N10">
-        <v>32.0970775725202</v>
+        <v>98.236166</v>
       </c>
       <c r="O10">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="P10">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="Q10">
-        <v>586.8812718773769</v>
+        <v>954.7964826691044</v>
       </c>
       <c r="R10">
-        <v>586.8812718773769</v>
+        <v>8593.16834402194</v>
       </c>
       <c r="S10">
-        <v>0.01612668882581879</v>
+        <v>0.02025048662912531</v>
       </c>
       <c r="T10">
-        <v>0.01612668882581879</v>
+        <v>0.02025048662912531</v>
       </c>
     </row>
   </sheetData>
